--- a/Testdata/TC_Unit Manipulation_06.xlsx
+++ b/Testdata/TC_Unit Manipulation_06.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>djUAAB+LCAAAAAAAAAPtW1tvG8cV/isLPSVAqdkldaMy3oAXySHKiyBSsZUXY7g7lLZa7rJ7kcS39KEIkF6AokmA9Io8FA0CNPVDWrh20f6XwJLdp/6FnpnZy+xyaXFlF21RGQa8cy5zOXPmnO8Mx/jdy6mtnFPPt1zn3pq2rq4p1DFc03JO7q2FwaSiba29q+O9S4PaB8QjUxqAsAJajr976Vv31k6DYLaL0MXFxfpFbd31TlBVVTX0sNcdGqd0SiqW4wfEMehaomXerLWm45Y57dGAmCQgQvPeWmfYWW9Ry2gDrUccckK99WboWw71/T0nsAKL+kzToySgrXbvfbEwvbq+ta5htEBPJZuhZZtCLiMp6JEcDEtH1pTqVbWqVrRqRa2NNHW3trm7UV/Xtrc/iBUTQdwlfjCk3rllcMIwINMZV9eqak1Ta5sbdYwKhaCv1AA6HtjmIT23fGq2qG37pSyCog1sGAGsupwxVYwk3aij20/hvkdmpyMrsGlZ9X3XowYY6lZj9+nFwIvsN5p1gTs6tbxg3ibz0n0d+dQbzJg1yqnquO06QcOmXnA0g02lJuw5MPTACylGS5ipUtvyDfi2nJCa+oTYvqyUYeIHrnfmz4hB+3BgEevjwrFdYoJnBZYfWEY66AIDH3juDHqEwZuube5Dr5FwASPpueOAidmwTdc9S2dXxMTcB7g3wJ5OSRCLL9Dx8NS9GDj2fBiOfcOzxtRsN2PpQh5mJy/SboV+4E5hFikJC5pEmcMfOGl5Mm5Tw5oS+8AGI/p6DXrJEHAjDNyJFbRcO5w6fjynHBU/gBWN6GWywqSNB7C5DjO663ScWF6YuZCVVTh0L5IxFxncCBK54Rvxdi8y8sJtoMXbt8jhO8JWuW/ZkAjkvZCoWa8YnlIaFLqE4GAW8/ZZatGbczYmRikFg2eCdwNVZwmiwv+OVHWX/4WREzbec8xITuPBuSbLxUzcD6eDMZzgc74mXQNejoRhFXbTJs4ZUB9YwWm/Ec++gIPFmpfKL/IwnNWZTeacnNhFpuGOY9ihSUUI6DgT7pRsbmIbl7LxAqkLp1rHxJmP5jMIub61G8DHvTVIwrt+4EGaX9MNN3QCb85iBUaR6E06fjh2+ADEXlln4tHvh4Au5vuhY7Rcc/XRTGGdI8cKVp+hG3oiAK6uwq3HYmHotymLKjzMr6xvlFmT75USnzp06jqWsbq1wchs9uYtFuLHp2plDSrO18ryNmRykejYWV9ZzQNoCKmt1DAN33cNiztrdDxMSR8tOTJtOiGhDbAsgKR6kkTbPBk3/LO8jEzCR54dxzydgV4fUK9hTtcNgAsM2a0b7pQREIDNB0OMZHmGeQy655x0iXMSAqpI4kqenkRclhFHHnF8tpwEROSCb7EQjuOUADe6CF6DkDuCCF4ucDHKyeERnc5cj9g9MIy1H7ldhJAAfPRIcBq1IJvZ1IiNjFLVRCs7s3jiN4nxtCSWwQ58FCZzRC7E1iLwdSqT0jBbZQ+Opd0itjX2RFSNk3cRDzYshYNx/GWLKwkN4z2AGgvy7XfpnAHvtBHRuctqMUM4MAuk+vBwY6e6qW5uApZhbcxXfN89DxRAvRRQoVJRRuRSeUfpOKZ1bpkhseETnA9WJswTpaBSmrIO3o/jO59CA+aZpWQFAFmcWJA+FgUTTqqgH1Pi2XNJUCyx6xogd/3J36+e/ur6kz9f/fB3lRdf/vTq4y/++ddfPH/y1fOnTwVVrFFI4xEZ25TPaNTc2VFrG+BgCQkzqyKOgs3QCDjt+JiD36SNo2KNN1p7ndb9bpMHkoQYq4tcglgdOHfDtDkUq+AD8b1EsQsIEX0UB6aoneFKuUlnddk5zUrL/GWKwhYvnv3+xbM/LNWODJaCLK1e3+GF780YTFuQSzBYNxP8mfBGRd2sVKuScE4GH4rIn9ipY+pQP9dVbVvVkiBuJl5cJJRnRT2NyAnK6QlSS+CixAXkdszknj+ifpCwxVmQGpGP/ulHL//4aUYqsm5EyfYCk+P4hQ2G4gbvun84UoaDo8PWnjLaGzI/SXmSnOj8FcLR6MmByjiV48Ap/44CWR2ymLIGxc+a4k4USoxTZQ5HUTqIGWcrooqBbtllfpb3PTeciR2RFFJqgWQSTgo1CoIN53F7LkSdlFUgLuZ69ZdvihSihbRTJKsf9prK1En8ktNwhiNIEj86tZ//7fmTj1hwe/yzqyc/yPQQjZPcAICfw2mSm4nbQ8iLEk2Ogh8MuTHP1EdSYomIrII6cC0n8HVtgxdPUQuDqsZ64//izhRyHe+Y2wvoOQp+j/h7l0F0sPU+RlkCzHNGIM26aZmZEEQMT+36j1//5vqX31x/9vjlR19dffzl1Y8/e/Hsty+//kKcuutPH1//5OsoyucTAZ8LK14F+lP4VYihsNOosKStfPvhzxXHDRTAGkrII9K3H34udcYmylFJ2jNguWQi2SksiMrKTE+RppLMIaOXqIjM32IprJZIREnMnVlGOsgHFdYVO3ec8VZnVAl9qrgAo96GlWSFU+VV9SIVkVIPttWqVo24YjZsCWPiS6a/b7tjgBExg9815EQyWq9WSGX5ePe7g2ajm4qISQw8k3rMDcUH7vgxmozdS6IAF1CeEdrsSmhBbJGF4y8pdKHobmXSMFnI09Wi+4uMBG6FnidQkBPdyQ/DGSDf+AZuOZ/fSkpgty+AqQx/03anneVDW+JC8suyGYHzeTiKWCI0dXx2jSOwa5+ZJm0CL3OTCeaIrt0FugIkST3EYs2e57leYcBJObFYD2AzRBGUWjyRQWxIAbHNdK9iQhzk7qD2HdS+g9p3UPsOav+/Qe3xUqg9Xg61CxTLI2xtOcLWHlF1u14zqVapbVS3KxvmJqnU6+p2ZUfVxpPtLbpJqrX/APiON6vgR4alc1g9K91m31/ligVV05uOpK+ds18dTG8IcjfXbOgVO3ZXSd1VUm+6ktKSSipG4r6468/9AgDByNSP+p3Ro16j3zk46jZGnQGrFRiCkBKaEDnqjjoH3c7e4VtNy7aB/o4iip1AIbatTNlPDDPbgkLibfZjjJQP09dJYhpJO8LtcN5PaNBLOojh+/vEDqnehBmJL45K9dagPxw1+pDGo5+Jcl0WjUBmM5tniGWDjA6P9soNg+RVCfiaL0IkarITaWRseFZwCh1YxmBGxW8WPoTQBblElRV7qZJSpMXrwXw5HYUjVyjQ25ZXSBQbKBNvUS615Ntx5JPpSKpakFSIoKKyA2XqDPTaNQVaWgss58QzTRNT4YVBQd4qlFtWARQK31wB5GE7p6wO6lEmwaFF0J6S0FI8jhZANyqGwUvICyqJ+xcSi7wqASeFxHgACSwigU3QIrREb+aSFsl4TH0tSLg6SkASAS1m7SwJZdIsyqdUmYCk/IcKsl2OhrLpCkVRCf2vXe5FY/833+6h29znoTd3bScllrY1mRwDhHyYvp2KCWLGaS+sIXLqAihBEmqRfCN6YPVmneU22Kaom7v75LL3yauX1/+Wq2aUvgdJEVKb2gDoyr46jrV77vmtdcEtyqp2/IFtRnYu96QlMUvagfwGnPlQ2ck0PA8QBns0WvrRdtdyzjrlVg8HzKjXt2h1e1MjtTGBPLOzVZ+AH9XqxCQTgE28U1YMsC6mgAPZ+6Byg2gsPsnq6VuuQ+KclOxNGJgrsvdOYCl+VqPKN2njfcvzg4cMBERfgnKcUI4FcHyoVwU6fCjax3ptUxBAAMmDocys49ATiP8u4Npda2qVfBOlxvEp2wm4wWwmcGDZDW21e316GWAk9QCYYfw9gCfiEWGZ3sSpggIo0Y/7Gobj0t2hWPkA+Myxbqe9ZwK8vL02f3xv2a8xAQ4qb9tFx/Gtk9Og7L7WSX1cpWq9UlM3a5UNozauEGNzu7JVr25sqVsGSwHs1XTUOSQOi16UHISlG8sPiV1eD+X+95T+L+YoQYp2NQAA</t>
+          <t>ADYAAB+LCAAAAAAAAAPtW1lz2zgS/issP2UeZJCSbMtehFO6nOWsDpclT5J9SUEkJGHNQ8vDjv79NgAeIEUlouLZfVinVBWhLwANoPtrCMa/f/dc7YWGEQv8jxfGpX6hUd8OHOZvPl4k8bplXF/8buLxd5u6DyQkHo1BWAMtP7r7HrGPF9s43t0h9Pr6evnauQzCDWrruoG+TCcLe0s90mJ+FBPfphe5lvNzrQsTDx1vSmPikJhIzY8X1sK6HFJmj4A2JT7Z0PBykETMp1E09mMWMxpxzZCSmA5H0z/lxMz25fWlgdEBvZAcJMx1pFxJUtJTOeiWLplHzbbe1lv6TcvoLPWruyvjrn17ady0/5kp5oJ4QqJ4QcMXZgvCIibeTqjrN0ZHv7oy2rcY1QqBrcIBJp67ziN9YRF1htR1o0YeQekC9u0YZt3MmTpGim5q6PwhfArJbrtksUubqt8HIbXBUWf1PaOv8zD133I3Ae5yy8J4PyL7xraeIhrOd9wbzVRNPAr8uO/SMH7awaJSB9YcGGYcJhSjI8xCacQiG74zP6GOuSZupCqVmPhzED5HO2LTGRxYxG28+m5AHNhZMYtiZhedHjDwQxjswCJ0Pghc5x6spsI1jNyy5YOLebeDIHguRlfHxGIPiN0Aa+qROBM/oOPFNnid++5+kawiO2Qr6owGmXQtD/OTl2oPkygOPBhFQcKSplCmU7SHf3DYqhw8ojbziPvggh8jswOGSgTcT+JgzeJh4CaeH2XDqlDxZ5jUkn7PJ5m38RzW1+d+D3zLz+Slp2tZZYXH4DXv85Ah/KCQ+5Gdrfghoyo8Alq2goccsSh8lvfMhVygLodCLW+MxZbSuHZXSA7mYe+eZxdzsOd9YlRQMGxO2OBANXmOaInPUtfvxAd6ztl47DupnKG3jHaro8plTDxLvPkKDvGLmJNpAK9CwjALd+AS/xmon1m8nfWz0ddwsJzzUflDHobjunPJXpBzv6g0bPm2mzhURgHLX4tNyccml/EoGx+QJnCwTUz8/XK/g6gbsbsYvny8gDx8F8UhZPoL0w4SPw73PFxglIr+TCdKVr7ogLgn66xD+u8EAMb+PvHtYeCc3psjvfPks/j0EQZJKGPg6SrCezwcJtGI8sAiIv3J+naTOUVhI3HPp17gM/t0b4OT+eidMyYSZafqZA0qz9fJ8i4kc5nr+Fk/WS0EdAjZrVE3/SgKbCY2a3o8HEUfHTkyI7omiQvILIa8usmjbZWM+9FzVUYl4afQzWKeyXFvBMDXdrxLGxADB3eXduBxAgK8+XmBkSrPYY9Nx/5mQvxNAsAijytVeh5xeVJchsSP+HRyHFEJvvVCOItTEt+YMnjNE7ERZPAKgItRRQ4vqbcLQuJOwTHsPt12KUgC/DEl8TZtQTZzqZ05GRWquVZ5ZNnAfyYm0pKcBj/waZisEIUQn4uE2IVMQcN8llM4lu6QuGwVyqiaJe86HixYgQiz+Msn1xAdZmsAZRbk23/QPcfeRSOliy1rZAy5gXkgNReP3d5Nr9tpA5bhbSxm/GE0/A1wm5MIp91pEwbxd82oo80gxIE/tU8kutOm08HyCdKgcFKaiM7QVzXxfRbrxXCmsGVLhDIfQMaGQSY5kMsZhbw5Bei5dfeKpJztJLBB8AOcvGCnPTKXRXLszxAY+Di1vks8bUhYWJqxVMNLsnKpGNpy0Ov1bm9g0+UkzD2NBDjmvhA0azQToDgn4LSIE43h2Bo+PE5FdMmJmb5MMIjXh/sgKZoLOR/Rk1hglO0LKWIOs2iVtktcJWGZakFQ1lGljqlLlyiOPGoidV4Jo12fiNHaHKPptRhtUkoOacENRm8V4YoMfpSZIXeZBQX9Vddod3S9nQd5J9/fdUJVVmppSTaooidJQ4mb0u3AT17RzpjiNFi+E8B5ZySXkYdEaUhP1gumXk4pNUIwUgF2eM8oa4guRgzq5hhCZ0y1T9Sn/MwGa23OXI34Dj8W4JtCXFGVnXL9Z6Gv/QEpXuhPmb8nz5pDfHGsBonHVCPpaPPTqe64w7Nb2o91VGnuh4rVHj+FQbI7iDsFtUayNgIdciuawmeHQyt4NfJysIMEcijx65TS2YwKyGtOZxrEKy3e5ntUkHGVKamKiLT1RxITIfPIVknJRNpXfmMAmx6OltrMzwDEwjQrVSj480J49Vn/pmShlMjLrYeA+XFk9rqi0kpbGFQNbk38jy0PEqMwLPwG9AoF/51E4+9xespNiL1lAoxzR2CbBkVNmhNkcC98C03qatbo8nEw0I3unXYkT2ilZJImhGrOEKMT3w4s/ihrah/UGK0a51MRmkVP2fi0MZzgDT9tVQlVxxRSe2UMJYVcVgKHIWS73k0ukea7YMfswvpCxIC89wq3kM56XoiYowimMjK/PvSubztGypX9cXC0IhGtiYQwDeqxxNMyGXEvUZEuGThZt1CTIXw2ms/GC6tfSMnRzUMIfHxPyi/YijIcmu01hQJcwIc2nO+YHoodsnD2TQloKL2VWfcdfhdv6nU3HyUJPEzCUKImP73QXyQ7wMz5xctxAXGnqeDkmcS0KnIu2taozIe2woW8WGZzguCL0JSyZJiyIn4DJGHvjPumaAKvdA8K/kgv7SUIe2GwDohHnnEYBmFt+Ck4mdgUEDfEFFS4PJdBvEuJzp1isTJCFvLeUfo7Sn9H6e8o/R2lv6P0GpTOEfbKr4PoGee/gM+N4/jc+OZcdXt697bb6q6ubltd2r1prdbddsvpQFYyOoRc6eR/AN2zhav5PePoGE7OXGdtgR9ty/qi662D6xsl+B9H2VOi38/rP/SD9Xuvyt6rsr+0KjPyqiwD9ZH8xaHyOwTEKcd8mlnLb9P+zHp4mvSX1pyXHRxsKNlNijxNltbDxBo/fhgw1wX63zRZN8UacV3N4z907FwGNclv/CchJTkWz6TkMPJ2WgJAHNjQeJobyCqBP4mbUHMAI5LfBJg1h/PZYtmfLWFZ5I9VFZN1PZDdzhXJ41gny8encbNukDorCXqr9YxCzVeiCJr9kMVbMMDs+Y7KX04A0hzK5aq8biyUtDotUVpWS/M0NgVSgZ5bqSFZrKBSHEaVrFNtZ2FQpSOl6kFK/YLqqhVUqk7QL1ci6GjtcJyTjbRIWLWXDzX5rFbuWLFQK/zzYqGK8AXldPyPSikPHUL7goSOonV0gL9RPSY+Qj5Qybd/LbFuV+W4pZaYdaDgSCRhCzoEn+htbn+RCtX0X0KLp0MGpBDQYYIuk1Apw6JqNlUJSEmMqCYNVmionLFQGpXQ+0Xhm18UonOuBtHb3QAqiWXE1uuvgHS/FC+4MoIccWGFN2ROPQAlSEEtyt5In3m97WY5B9vUmfn/2nJvcjd9eun9l1xbo+JZSgGRRtQFRNf0/XOmPQ1eztaFfdFU1YrmrpP6udnLmtwthQH1NTrfQ00H0w9DgBj87Wrj5+MT5j9bzWZv9m47a6PtdOjqtmvfkF6n07nu3PBP17YpFInSKK8GuAkPgCB/ptSsE4MHKFW9eFL2SPxNQ2vSwUKRP7sCT8l7TlDiT66yNr5nYRR/4Sgg/SYpX3PKV4kcv5htCQ+/yPZXs3clCSCA1M5QadRZ7InlHy4E7oR5rOHTLD2LT2UjsA12OwkEmy7ocDSd0e8xRooFAA2rfwE+kW8Zm1iTpwoqoFw/s7VIVo3NoUz5Afh8Y52nPXYAX56vLf4MgLm/MACBKs81YfkR22zjpuu6Jivjunutt7qOft3qru1eq7e+vW51Oqtu+4p2bgkx+OPt1DgkDkZfG3bC0w2LEuI210OVv+My/wM5IpDQADYAAA==</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +63,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,20 +113,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,34 +442,34 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -454,105 +478,105 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB bn</t>
+          <t>BTU bn</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
+      <c r="B8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="C8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -561,7 +585,7 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -574,300 +598,850 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
+      <c r="B12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="C12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
+      <c r="B13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="6">
+        <v>41244</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="C17" s="2">
-        <v>1.231927</v>
+        <v>93374.63980350002</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="C18" s="2">
-        <v>0.1962427157566667</v>
+        <v>67588679.72409233</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="C19" s="2">
-        <v>0.4429929071177852</v>
+        <v>8221.233467314521</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892373</v>
+        <v>0.5786993566761636</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045305</v>
+        <v>-0.2909755924600841</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.08804567797654154</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>0.72763</v>
+        <v>80465.44901</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>112482.41951</v>
       </c>
       <c r="C24" s="2">
-        <v>2.02683</v>
+        <v>112482.41951</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>92555.497445</v>
       </c>
       <c r="C25" s="2">
-        <v>1.181145</v>
+        <v>92555.497445</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
-        <v>37226</v>
-      </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.7910199999999999</v>
+      <c r="A27" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B27" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="C27" s="11">
+        <v>102584.6417</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
-        <v>37591</v>
-      </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0.76773</v>
+      <c r="A28" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B28" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C28" s="11">
+        <v>93467.54944</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
-        <v>37956</v>
-      </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.72763</v>
+      <c r="A29" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B29" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C29" s="11">
+        <v>98607.01212</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
-        <v>38322</v>
-      </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0.92291</v>
+      <c r="A30" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B30" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C30" s="11">
+        <v>97395.64367</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
-        <v>38687</v>
-      </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1.12649</v>
+      <c r="A31" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B31" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>92075.12437000001</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B32" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C32" s="11">
+        <v>95232.23819</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B33" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="C33" s="11">
+        <v>100047.7073</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B34" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C34" s="11">
+        <v>95307.24011</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B35" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C35" s="11">
+        <v>89917.83798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B36" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C36" s="11">
+        <v>98395.83232</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B37" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C37" s="11">
+        <v>98170.13428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1.2358</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B38" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C38" s="11">
+        <v>98568.94826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C39" s="11">
+        <v>95524.24980000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C40" s="11">
+        <v>83617.02267999999</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B41" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C41" s="11">
+        <v>98607.01212</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B42" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C42" s="11">
+        <v>87313.59292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C43" s="11">
+        <v>89092.12278000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C44" s="11">
+        <v>83580.49619999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B45" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C45" s="11">
+        <v>89062.82719</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C46" s="11">
+        <v>93159.99709999999</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B47" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C47" s="11">
+        <v>86589.08224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B48" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C48" s="11">
+        <v>93035.87052</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B49" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C49" s="11">
+        <v>91356.15084</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1.48271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B50" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C50" s="11">
+        <v>95688.73797</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B51" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C51" s="11">
+        <v>96328.9469</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C52" s="11">
+        <v>98953.75303000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B53" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C53" s="11">
+        <v>90097.77222</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B54" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C54" s="11">
+        <v>82155.80794</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B55" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="C55" s="11">
+        <v>90612.21428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C56" s="11">
+        <v>83468.69955999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B57" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="C57" s="11">
+        <v>85880.46527</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B58" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C58" s="11">
+        <v>88071.95206</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B59" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C59" s="11">
+        <v>86411.6581</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C60" s="11">
+        <v>85863.46357000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C61" s="11">
+        <v>87911.15601999999</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1.59861</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B62" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C62" s="11">
+        <v>91789.90822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B63" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C63" s="11">
+        <v>92030.37178</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B64" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C64" s="11">
+        <v>80465.44901</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B65" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C65" s="11">
+        <v>81558.51788</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B66" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="C66" s="11">
+        <v>81657.46119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B67" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C67" s="11">
+        <v>83308.78529</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B68" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C68" s="11">
+        <v>84839.49019</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B69" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C69" s="11">
+        <v>90413.66712</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B70" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C70" s="11">
+        <v>85945.56743</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B71" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C71" s="11">
+        <v>84672.43913</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B72" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C72" s="11">
+        <v>85370.54401</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B73" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C73" s="11">
+        <v>86578.4388</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1.63954</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B74" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C74" s="11">
+        <v>97156.65667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C75" s="11">
+        <v>97289.10838000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B76" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C76" s="11">
+        <v>94671.4368</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B77" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C77" s="11">
+        <v>110403.24314</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>99640.66865000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B79" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C79" s="11">
+        <v>110055.8161</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C80" s="11">
+        <v>94930.02968000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B81" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C81" s="11">
+        <v>111079.15933</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B82" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C82" s="11">
+        <v>112482.41951</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B83" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C83" s="11">
+        <v>105503.17811</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B84" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C84" s="11">
+        <v>107765.02529</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B85" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C85" s="11">
+        <v>101364.03607</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>2.02683</v>
+      <c r="B86" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C86" s="11">
+        <v>109354.00938</v>
       </c>
     </row>
   </sheetData>
@@ -887,23 +1461,23 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>86</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>1</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -913,7 +1487,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E27566B2-4A27-48C1-A76B-900C4D5266CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7628E270-FCEF-4573-AF01-A64CF7554DB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
